--- a/chapter 2/MinMax.xlsx
+++ b/chapter 2/MinMax.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Writing\Lynda\Excel 2019 Intro to F&amp;Fs\Exercise Files\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70C7C6A-79B4-4B9D-8BCB-2B4CFC6B0C95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC6833E-5865-6D41-9FEB-BD44786285C3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24620" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -422,25 +422,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -450,8 +450,12 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>MIN(B4:B14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42811</v>
       </c>
@@ -461,8 +465,12 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>MAX(B4:B14)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42812</v>
       </c>
@@ -472,8 +480,12 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>AVERAGE(B4:B14)</f>
+        <v>3.3636363636363638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42813</v>
       </c>
@@ -483,8 +495,12 @@
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>MEDIAN(B4:B14)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42814</v>
       </c>
@@ -494,40 +510,57 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>_xlfn.MODE.SNGL(B4:B14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42815</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="array" ref="E8:E11">_xlfn.MODE.MULT(B4:B14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42816</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42817</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42818</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42819</v>
       </c>
@@ -535,7 +568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42820</v>
       </c>
@@ -543,12 +576,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42821</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
